--- a/production/eb07/s05/eb07-s05.xlsx
+++ b/production/eb07/s05/eb07-s05.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\eb-corpus\production\eb07\s05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus2\production\eb07\s05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="s05" sheetId="1" r:id="rId1"/>
+    <sheet name="eb07-s05" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="414">
   <si>
     <t>p-pg</t>
   </si>
@@ -32,21 +32,9 @@
     <t>scan-by</t>
   </si>
   <si>
-    <t>output-date</t>
-  </si>
-  <si>
-    <t>notes-prd</t>
-  </si>
-  <si>
     <t>tei-fn.xml</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>eb07-s05</t>
   </si>
   <si>
@@ -1245,6 +1233,39 @@
   </si>
   <si>
     <t>output-fn.docx</t>
+  </si>
+  <si>
+    <t>output-dt</t>
+  </si>
+  <si>
+    <t>valid-dt</t>
+  </si>
+  <si>
+    <t>cleanup-dt</t>
+  </si>
+  <si>
+    <t>afr-comments</t>
+  </si>
+  <si>
+    <t>tei-p-comments</t>
+  </si>
+  <si>
+    <t>Fixed table layout in tei-p; needs further correction.</t>
+  </si>
+  <si>
+    <t>Fixed footnote, added &lt;pb&gt; to it.</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>fixed footnote; added &lt;pb&gt; to note.</t>
+  </si>
+  <si>
+    <t>Two anchors for n.1, and one for n.2. Add 2nd n.1 in tei-e.</t>
+  </si>
+  <si>
+    <t>Reoutput entire section in AFR; added STEAM-ENGINE to partial entry.</t>
   </si>
 </sst>
 </file>
@@ -1271,12 +1292,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1291,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1310,15 +1337,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,9 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,47 +1647,51 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
+      <c r="L1" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1666,25 +1700,28 @@
         <v>676</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G2" s="6">
-        <v>43483</v>
+        <v>43605</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I2" s="6">
         <v>43550</v>
       </c>
       <c r="J2" s="5"/>
+      <c r="L2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1693,19 +1730,19 @@
         <v>677</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1714,16 +1751,16 @@
         <v>678</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1732,16 +1769,16 @@
         <v>679</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1750,16 +1787,16 @@
         <v>680</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1768,16 +1805,16 @@
         <v>681</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1786,16 +1823,16 @@
         <v>682</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -1804,16 +1841,16 @@
         <v>683</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -1822,16 +1859,16 @@
         <v>684</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -1840,19 +1877,22 @@
         <v>685</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1861,484 +1901,484 @@
         <v>686</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H24" s="5"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H25" s="5"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H27" s="5"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H28" s="5"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H29" s="5"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H31" s="5"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H32" s="5"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H33" s="5"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H37" s="5"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H38" s="5"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H39" s="5"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H40" s="5"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H42" s="5"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H45" s="5"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H46" s="5"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -2347,16 +2387,16 @@
         <v>687</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -2365,16 +2405,16 @@
         <v>688</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -2383,16 +2423,16 @@
         <v>689</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>20</v>
@@ -2401,16 +2441,16 @@
         <v>690</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -2419,16 +2459,16 @@
         <v>691</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -2437,16 +2477,16 @@
         <v>692</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -2455,16 +2495,16 @@
         <v>693</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>20</v>
@@ -2473,16 +2513,16 @@
         <v>694</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -2491,16 +2531,16 @@
         <v>695</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -2509,16 +2549,16 @@
         <v>696</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -2527,16 +2567,16 @@
         <v>697</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>20</v>
@@ -2545,16 +2585,16 @@
         <v>698</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -2563,16 +2603,16 @@
         <v>699</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>20</v>
@@ -2581,19 +2621,19 @@
         <v>700</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>20</v>
@@ -2602,19 +2642,19 @@
         <v>701</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>20</v>
@@ -2623,16 +2663,16 @@
         <v>702</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -2641,16 +2681,16 @@
         <v>703</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -2659,16 +2699,16 @@
         <v>704</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -2677,16 +2717,16 @@
         <v>705</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -2695,16 +2735,16 @@
         <v>706</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>20</v>
@@ -2713,16 +2753,16 @@
         <v>707</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>20</v>
@@ -2731,16 +2771,16 @@
         <v>708</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>20</v>
@@ -2749,16 +2789,16 @@
         <v>709</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>20</v>
@@ -2767,16 +2807,16 @@
         <v>710</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>20</v>
@@ -2785,16 +2825,16 @@
         <v>711</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>20</v>
@@ -2803,16 +2843,16 @@
         <v>712</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>20</v>
@@ -2821,16 +2861,16 @@
         <v>713</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>20</v>
@@ -2839,16 +2879,16 @@
         <v>714</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>20</v>
@@ -2857,16 +2897,16 @@
         <v>715</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>20</v>
@@ -2875,42 +2915,42 @@
         <v>716</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H79" s="5"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H80" s="5"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>20</v>
@@ -2919,16 +2959,16 @@
         <v>717</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -2937,16 +2977,16 @@
         <v>718</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>20</v>
@@ -2955,16 +2995,16 @@
         <v>719</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>20</v>
@@ -2973,16 +3013,16 @@
         <v>720</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>20</v>
@@ -2991,16 +3031,16 @@
         <v>721</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>20</v>
@@ -3009,16 +3049,16 @@
         <v>722</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>20</v>
@@ -3027,16 +3067,16 @@
         <v>723</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>20</v>
@@ -3045,16 +3085,16 @@
         <v>724</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>20</v>
@@ -3063,16 +3103,16 @@
         <v>725</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -3081,16 +3121,16 @@
         <v>726</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -3099,16 +3139,16 @@
         <v>727</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>20</v>
@@ -3117,16 +3157,16 @@
         <v>728</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>20</v>
@@ -3135,16 +3175,16 @@
         <v>729</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -3153,16 +3193,16 @@
         <v>730</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -3171,16 +3211,16 @@
         <v>731</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -3189,15 +3229,15 @@
         <v>732</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>20</v>
@@ -3206,15 +3246,15 @@
         <v>733</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>20</v>
@@ -3223,15 +3263,15 @@
         <v>734</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>20</v>
@@ -3240,15 +3280,15 @@
         <v>735</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>20</v>
@@ -3257,15 +3297,15 @@
         <v>736</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -3274,15 +3314,15 @@
         <v>737</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -3291,15 +3331,15 @@
         <v>738</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>20</v>
@@ -3308,15 +3348,15 @@
         <v>739</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>20</v>
@@ -3325,15 +3365,15 @@
         <v>740</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>20</v>
@@ -3342,15 +3382,15 @@
         <v>741</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -3359,15 +3399,15 @@
         <v>742</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <v>20</v>
@@ -3376,15 +3416,15 @@
         <v>743</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C108">
         <v>20</v>
@@ -3393,15 +3433,15 @@
         <v>744</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C109">
         <v>20</v>
@@ -3410,15 +3450,15 @@
         <v>745</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C110">
         <v>20</v>
@@ -3427,15 +3467,15 @@
         <v>746</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>20</v>
@@ -3444,15 +3484,15 @@
         <v>747</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C112">
         <v>20</v>
@@ -3461,15 +3501,15 @@
         <v>748</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>20</v>
@@ -3478,15 +3518,15 @@
         <v>749</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C114">
         <v>20</v>
@@ -3495,15 +3535,15 @@
         <v>750</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>20</v>
@@ -3512,15 +3552,15 @@
         <v>751</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>20</v>
@@ -3529,15 +3569,15 @@
         <v>752</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>20</v>
@@ -3546,15 +3586,15 @@
         <v>753</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>20</v>
@@ -3563,18 +3603,18 @@
         <v>754</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C119">
         <v>20</v>
@@ -3583,15 +3623,15 @@
         <v>755</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C120">
         <v>20</v>
@@ -3600,15 +3640,15 @@
         <v>756</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C121">
         <v>20</v>
@@ -3617,15 +3657,15 @@
         <v>757</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C122">
         <v>20</v>
@@ -3634,15 +3674,15 @@
         <v>758</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>20</v>
@@ -3651,15 +3691,15 @@
         <v>759</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -3668,15 +3708,15 @@
         <v>760</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -3685,18 +3725,18 @@
         <v>761</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K125" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C126">
         <v>20</v>
@@ -3705,15 +3745,15 @@
         <v>762</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C127">
         <v>20</v>
@@ -3722,18 +3762,18 @@
         <v>763</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K127" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C128">
         <v>20</v>
@@ -3742,15 +3782,15 @@
         <v>764</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>20</v>
@@ -3759,18 +3799,18 @@
         <v>765</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K129" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C130">
         <v>20</v>
@@ -3779,18 +3819,18 @@
         <v>766</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K130" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C131">
         <v>20</v>
@@ -3799,15 +3839,15 @@
         <v>767</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C132">
         <v>20</v>
@@ -3816,15 +3856,15 @@
         <v>768</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C133">
         <v>20</v>
@@ -3833,18 +3873,18 @@
         <v>769</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K133" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C134">
         <v>20</v>
@@ -3853,18 +3893,18 @@
         <v>770</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K134" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C135">
         <v>20</v>
@@ -3873,15 +3913,15 @@
         <v>771</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>20</v>
@@ -3890,15 +3930,15 @@
         <v>772</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>20</v>
@@ -3907,15 +3947,15 @@
         <v>773</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C138">
         <v>20</v>
@@ -3924,15 +3964,15 @@
         <v>774</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C139">
         <v>20</v>
@@ -3941,18 +3981,18 @@
         <v>775</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K139" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C140">
         <v>20</v>
@@ -3961,18 +4001,18 @@
         <v>776</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K140" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C141">
         <v>20</v>
@@ -3981,15 +4021,15 @@
         <v>777</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C142">
         <v>20</v>
@@ -3998,18 +4038,18 @@
         <v>778</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K142" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -4018,15 +4058,15 @@
         <v>779</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -4035,15 +4075,15 @@
         <v>780</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>20</v>
@@ -4052,15 +4092,15 @@
         <v>781</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>20</v>
@@ -4069,15 +4109,15 @@
         <v>782</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -4086,18 +4126,21 @@
         <v>783</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K147" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="L147" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C148">
         <v>20</v>
@@ -4106,18 +4149,21 @@
         <v>784</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K148" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="L148" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C149">
         <v>20</v>
@@ -4126,15 +4172,15 @@
         <v>785</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>20</v>
@@ -4143,15 +4189,15 @@
         <v>786</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C151">
         <v>20</v>
@@ -4160,15 +4206,15 @@
         <v>787</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C152">
         <v>20</v>
@@ -4177,15 +4223,15 @@
         <v>788</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C153">
         <v>20</v>
@@ -4194,15 +4240,15 @@
         <v>789</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C154">
         <v>20</v>
@@ -4211,15 +4257,15 @@
         <v>790</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C155">
         <v>20</v>
@@ -4228,15 +4274,15 @@
         <v>791</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C156">
         <v>20</v>
@@ -4245,15 +4291,15 @@
         <v>792</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C157">
         <v>20</v>
@@ -4262,15 +4308,15 @@
         <v>793</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C158">
         <v>20</v>
@@ -4279,15 +4325,15 @@
         <v>794</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C159">
         <v>20</v>
@@ -4296,15 +4342,15 @@
         <v>795</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C160">
         <v>20</v>
@@ -4313,15 +4359,15 @@
         <v>796</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C161">
         <v>20</v>
@@ -4330,15 +4376,15 @@
         <v>797</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C162">
         <v>20</v>
@@ -4347,15 +4393,15 @@
         <v>798</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C163">
         <v>20</v>
@@ -4364,15 +4410,15 @@
         <v>799</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C164">
         <v>20</v>
@@ -4381,15 +4427,15 @@
         <v>800</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C165">
         <v>20</v>
@@ -4398,15 +4444,15 @@
         <v>801</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C166">
         <v>20</v>
@@ -4415,15 +4461,15 @@
         <v>802</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C167">
         <v>20</v>
@@ -4432,15 +4478,15 @@
         <v>803</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C168">
         <v>20</v>
@@ -4449,15 +4495,15 @@
         <v>804</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C169">
         <v>20</v>
@@ -4466,15 +4512,15 @@
         <v>805</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C170">
         <v>20</v>
@@ -4483,15 +4529,15 @@
         <v>806</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C171">
         <v>20</v>
@@ -4500,15 +4546,15 @@
         <v>807</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>20</v>
@@ -4517,15 +4563,15 @@
         <v>808</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C173">
         <v>20</v>
@@ -4534,15 +4580,15 @@
         <v>809</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C174">
         <v>20</v>
@@ -4551,15 +4597,15 @@
         <v>810</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -4568,15 +4614,15 @@
         <v>811</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C176">
         <v>20</v>
@@ -4585,15 +4631,15 @@
         <v>812</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C177">
         <v>20</v>
@@ -4602,15 +4648,15 @@
         <v>813</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -4619,15 +4665,15 @@
         <v>814</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C179">
         <v>20</v>
@@ -4636,18 +4682,18 @@
         <v>815</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K179" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C180">
         <v>20</v>
@@ -4656,15 +4702,15 @@
         <v>816</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C181">
         <v>20</v>
@@ -4673,15 +4719,15 @@
         <v>817</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C182">
         <v>20</v>
@@ -4690,15 +4736,15 @@
         <v>818</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C183">
         <v>20</v>
@@ -4707,15 +4753,15 @@
         <v>819</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>20</v>
@@ -4724,15 +4770,15 @@
         <v>820</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C185">
         <v>20</v>
@@ -4741,15 +4787,15 @@
         <v>821</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C186">
         <v>20</v>
@@ -4758,18 +4804,21 @@
         <v>822</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K186" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="L186" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C187">
         <v>20</v>
@@ -4778,18 +4827,21 @@
         <v>823</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="L187" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C188">
         <v>20</v>
@@ -4798,15 +4850,15 @@
         <v>824</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C189">
         <v>20</v>
@@ -4815,18 +4867,21 @@
         <v>825</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K189" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="L189" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C190">
         <v>20</v>
@@ -4835,15 +4890,15 @@
         <v>826</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C191">
         <v>20</v>
@@ -4852,15 +4907,15 @@
         <v>827</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C192">
         <v>20</v>
@@ -4869,15 +4924,15 @@
         <v>828</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C193">
         <v>20</v>
@@ -4886,15 +4941,15 @@
         <v>829</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C194">
         <v>20</v>
@@ -4903,15 +4958,15 @@
         <v>830</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C195">
         <v>20</v>
@@ -4920,15 +4975,15 @@
         <v>831</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C196">
         <v>20</v>
@@ -4937,15 +4992,15 @@
         <v>832</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C197">
         <v>20</v>
@@ -4954,15 +5009,15 @@
         <v>833</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C198">
         <v>20</v>
@@ -4971,15 +5026,15 @@
         <v>834</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C199">
         <v>20</v>
@@ -4988,15 +5043,15 @@
         <v>835</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C200">
         <v>20</v>
@@ -5005,15 +5060,15 @@
         <v>836</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C201">
         <v>20</v>
@@ -5022,15 +5077,15 @@
         <v>837</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C202">
         <v>20</v>
@@ -5039,15 +5094,15 @@
         <v>838</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C203">
         <v>20</v>
@@ -5056,15 +5111,15 @@
         <v>839</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C204">
         <v>20</v>
@@ -5073,15 +5128,15 @@
         <v>840</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C205">
         <v>20</v>
@@ -5090,15 +5145,15 @@
         <v>841</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C206">
         <v>20</v>
@@ -5107,15 +5162,15 @@
         <v>842</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -5124,15 +5179,15 @@
         <v>843</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C208">
         <v>20</v>
@@ -5141,15 +5196,15 @@
         <v>844</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C209">
         <v>20</v>
@@ -5158,15 +5213,15 @@
         <v>845</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C210">
         <v>20</v>
@@ -5175,15 +5230,15 @@
         <v>846</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C211">
         <v>20</v>
@@ -5192,15 +5247,15 @@
         <v>847</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C212">
         <v>20</v>
@@ -5209,10 +5264,10 @@
         <v>848</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
